--- a/documentation/133_GESTPROJ_KAZ_PER.xlsx
+++ b/documentation/133_GESTPROJ_KAZ_PER.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\133-Perlini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\KazanjianA01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE8AF19-66E4-43F3-941B-B1BF411E1879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFB69888-09B7-4462-9B80-537128C0E483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,38 +37,164 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Planning</t>
   </si>
   <si>
+    <t>Elèves</t>
+  </si>
+  <si>
+    <t>KAZANJIAN Adrian et PERLINI Nilo</t>
+  </si>
+  <si>
     <t>Classe</t>
   </si>
   <si>
     <t>Projet</t>
   </si>
   <si>
+    <t>Forum : Doudix</t>
+  </si>
+  <si>
     <t>Module</t>
   </si>
   <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
     <t>Tâches</t>
   </si>
   <si>
+    <t>17.03.2025 - PM</t>
+  </si>
+  <si>
+    <t>17.03.2025 - AM</t>
+  </si>
+  <si>
+    <t>18.03.2025 - PM</t>
+  </si>
+  <si>
+    <t>24.03.2025 - PM</t>
+  </si>
+  <si>
+    <t>24.03.2025 - AM</t>
+  </si>
+  <si>
+    <t>25.03.2025 - PM</t>
+  </si>
+  <si>
+    <t>31.03.2025 - PM</t>
+  </si>
+  <si>
+    <t>31.03.2025 - AM</t>
+  </si>
+  <si>
+    <t>01.04.2025 - PM</t>
+  </si>
+  <si>
+    <t>07.04.2025 - PM</t>
+  </si>
+  <si>
+    <t>07.04.2025 - AM</t>
+  </si>
+  <si>
+    <t>08.04.2025 - PM</t>
+  </si>
+  <si>
+    <t>14.04.2025 - PM</t>
+  </si>
+  <si>
+    <t>14.04.2025 - AM</t>
+  </si>
+  <si>
+    <t>15.04.2025- PM</t>
+  </si>
+  <si>
+    <t>Théorie + TT</t>
+  </si>
+  <si>
+    <t>Exercice 1 à 10</t>
+  </si>
+  <si>
     <t>Analyse</t>
   </si>
   <si>
+    <t>Choix du projet : Fonctionnalité</t>
+  </si>
+  <si>
+    <t>Maquettes</t>
+  </si>
+  <si>
+    <t>Schémas et diagrammes</t>
+  </si>
+  <si>
     <t>Conception</t>
   </si>
   <si>
+    <t>Diagramme de classes</t>
+  </si>
+  <si>
+    <t>Schémas ER - Modèle SQL</t>
+  </si>
+  <si>
+    <t>Diagramme de navigations</t>
+  </si>
+  <si>
     <t>Réalisation</t>
   </si>
   <si>
+    <t>Mise en place infrastructures</t>
+  </si>
+  <si>
+    <t>Développement du backend</t>
+  </si>
+  <si>
+    <t>Développement du Frontend</t>
+  </si>
+  <si>
     <t>Tests de l'application</t>
   </si>
   <si>
+    <t>Mise en place stratégie</t>
+  </si>
+  <si>
+    <t>Tests des fonctionnalitées</t>
+  </si>
+  <si>
+    <t>Tests, sécuritées</t>
+  </si>
+  <si>
+    <t>Démonstration</t>
+  </si>
+  <si>
+    <t>Démonstration de l'app</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Journal de travail - 133</t>
+  </si>
+  <si>
     <t>Elève / classe</t>
   </si>
   <si>
+    <t>Nilo Perlini</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -73,6 +202,18 @@
   </si>
   <si>
     <t>Temps d'exécution [heures]</t>
+  </si>
+  <si>
+    <t>Introduction au module / Exécution des exercices / Documentation des exercices</t>
+  </si>
+  <si>
+    <t>Exécution des exercices / Documentation des exercices</t>
+  </si>
+  <si>
+    <t>Exécution des exercices / Documentation des exercices / Choix du projet avec fonctionnalités / Création des maquettes / Schéma et diagrammes</t>
+  </si>
+  <si>
+    <t>Création du panning /Conception</t>
   </si>
   <si>
     <t xml:space="preserve">Total </t>
@@ -196,127 +337,22 @@
     </r>
   </si>
   <si>
-    <t>Théorie + TT</t>
-  </si>
-  <si>
-    <t>Démonstration</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Journal de travail - 133</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>Elèves</t>
-  </si>
-  <si>
-    <t>KAZANJIAN Adrian et PERLINI Nilo</t>
-  </si>
-  <si>
-    <t>Forum : Doudix</t>
-  </si>
-  <si>
-    <t>17.03.2025 - PM</t>
-  </si>
-  <si>
-    <t>17.03.2025 - AM</t>
-  </si>
-  <si>
-    <t>18.03.2025 - PM</t>
-  </si>
-  <si>
-    <t>24.03.2025 - PM</t>
-  </si>
-  <si>
-    <t>24.03.2025 - AM</t>
-  </si>
-  <si>
-    <t>25.03.2025 - PM</t>
-  </si>
-  <si>
-    <t>31.03.2025 - PM</t>
-  </si>
-  <si>
-    <t>31.03.2025 - AM</t>
-  </si>
-  <si>
-    <t>01.04.2025 - PM</t>
-  </si>
-  <si>
-    <t>07.04.2025 - PM</t>
-  </si>
-  <si>
-    <t>07.04.2025 - AM</t>
-  </si>
-  <si>
-    <t>08.04.2025 - PM</t>
-  </si>
-  <si>
-    <t>14.04.2025 - PM</t>
-  </si>
-  <si>
-    <t>14.04.2025 - AM</t>
-  </si>
-  <si>
-    <t>15.04.2025- PM</t>
-  </si>
-  <si>
-    <t>Exercice 1 à 10</t>
-  </si>
-  <si>
-    <t>Maquettes</t>
-  </si>
-  <si>
-    <t>Choix du projet : Fonctionnalité</t>
-  </si>
-  <si>
-    <t>Schémas et diagrammes</t>
-  </si>
-  <si>
-    <t>Mise en place infrastructures</t>
-  </si>
-  <si>
-    <t>Diagramme de classes</t>
-  </si>
-  <si>
-    <t>Schémas ER - Modèle SQL</t>
-  </si>
-  <si>
-    <t>Diagramme de navigations</t>
-  </si>
-  <si>
-    <t>Développement du backend</t>
-  </si>
-  <si>
-    <t>Développement du Frontend</t>
-  </si>
-  <si>
-    <t>Mise en place stratégie</t>
-  </si>
-  <si>
-    <t>Tests des fonctionnalitées</t>
-  </si>
-  <si>
-    <t>Tests, sécuritées</t>
-  </si>
-  <si>
-    <t>Démonstration de l'app</t>
+    <t>Adrian Kazanjian</t>
+  </si>
+  <si>
+    <t>Choix du projet avec fonctionnalités / Création des maquettes / Schéma et diagrammes</t>
+  </si>
+  <si>
+    <t>Documentation des maquettes et partie analyse dans la documentation / Journal de travail / Documentation de la partie Conception dans la documentation</t>
+  </si>
+  <si>
+    <t>Développement du BackEnd</t>
+  </si>
+  <si>
+    <t>Développement du BackEnd / Développement du FrontEnd</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -408,7 +444,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +522,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -782,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -813,9 +855,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -869,6 +908,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -911,16 +959,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1897156</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>541244</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -935,8 +983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1916206" y="1187824"/>
-          <a:ext cx="1120588" cy="5423647"/>
+          <a:off x="1897156" y="1343025"/>
+          <a:ext cx="1120588" cy="5419725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -978,6 +1026,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1272,8 +1324,8 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1284,63 +1336,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="60"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="62"/>
       <c r="K3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="59">
+        <v>3</v>
+      </c>
+      <c r="L3" s="61">
         <v>300233</v>
       </c>
-      <c r="M3" s="60"/>
+      <c r="M3" s="62"/>
     </row>
     <row r="4" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="60"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" s="3">
         <v>133</v>
@@ -1349,90 +1401,98 @@
     <row r="5" spans="1:16" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:16" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="59"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="59"/>
+      <c r="P7" s="60"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="56" t="s">
+      <c r="N8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="56" t="s">
+      <c r="O8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="56" t="s">
+      <c r="P8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="56" t="s">
+    </row>
+    <row r="9" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1446,13 +1506,21 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>71</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -1466,8 +1534,8 @@
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>5</v>
+      <c r="A11" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="6"/>
@@ -1486,13 +1554,15 @@
       <c r="P11" s="11"/>
     </row>
     <row r="12" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>49</v>
+      <c r="A12" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="6"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="45"/>
+      <c r="E12" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -1506,15 +1576,17 @@
       <c r="P12" s="11"/>
     </row>
     <row r="13" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>48</v>
+      <c r="A13" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="6"/>
       <c r="D13" s="12"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
+      <c r="F13" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="45"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -1526,15 +1598,19 @@
       <c r="P13" s="11"/>
     </row>
     <row r="14" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>50</v>
+      <c r="A14" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="6"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="F14" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -1546,8 +1622,8 @@
       <c r="P14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>6</v>
+      <c r="A15" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="6"/>
@@ -1566,15 +1642,17 @@
       <c r="P15" s="11"/>
     </row>
     <row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>52</v>
+      <c r="A16" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="6"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="47"/>
+      <c r="G16" s="46" t="s">
+        <v>71</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -1586,15 +1664,17 @@
       <c r="P16" s="11"/>
     </row>
     <row r="17" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>53</v>
+      <c r="A17" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="6"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="47"/>
+      <c r="G17" s="46" t="s">
+        <v>71</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -1606,15 +1686,17 @@
       <c r="P17" s="11"/>
     </row>
     <row r="18" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>54</v>
+      <c r="A18" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="6"/>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="47"/>
+      <c r="G18" s="46" t="s">
+        <v>71</v>
+      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -1626,8 +1708,8 @@
       <c r="P18" s="11"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>7</v>
+      <c r="A19" s="36" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="6"/>
@@ -1635,7 +1717,9 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -1646,8 +1730,8 @@
       <c r="P19" s="11"/>
     </row>
     <row r="20" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
-        <v>51</v>
+      <c r="A20" s="37" t="s">
+        <v>39</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="6"/>
@@ -1655,8 +1739,12 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="11"/>
+      <c r="H20" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -1666,8 +1754,8 @@
       <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
-        <v>55</v>
+      <c r="A21" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="6"/>
@@ -1676,18 +1764,22 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
+      <c r="I21" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
     <row r="22" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>56</v>
+      <c r="A22" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="6"/>
@@ -1699,15 +1791,15 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>8</v>
+      <c r="A23" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="6"/>
@@ -1726,8 +1818,8 @@
       <c r="P23" s="11"/>
     </row>
     <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>57</v>
+      <c r="A24" s="39" t="s">
+        <v>43</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="6"/>
@@ -1741,13 +1833,13 @@
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="52"/>
+      <c r="N24" s="51"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
     <row r="25" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>58</v>
+      <c r="A25" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="6"/>
@@ -1761,89 +1853,89 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="52"/>
+      <c r="N25" s="51"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
     <row r="26" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
+      <c r="A26" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
     </row>
     <row r="27" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
+      <c r="A27" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="55"/>
+      <c r="A28" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
+      <c r="A29" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1872,160 +1964,343 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="63.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="A1" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="17"/>
+        <v>50</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="19"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>45733</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="18">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="19"/>
+      <c r="A9" s="17">
+        <v>45734</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>45740</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="18">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="17">
+        <v>45741</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="18">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="19"/>
+      <c r="A12" s="17">
+        <v>45747</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="18">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="19"/>
+      <c r="A13" s="17">
+        <v>45748</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="18">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="15"/>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="19"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="19"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="19"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="19"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="19"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="19"/>
+      <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="19">
+      <c r="A22" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57">
         <f>SUM(C8:C21)</f>
-        <v>0</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>14</v>
+      <c r="B24" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
-        <v>15</v>
+      <c r="B25" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
-        <v>16</v>
+      <c r="B26" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
-        <v>17</v>
+      <c r="B27" s="20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="22" t="s">
-        <v>18</v>
+      <c r="B28" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
-        <v>19</v>
+      <c r="B29" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>45733</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>45734</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>45740</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>45741</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>45747</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>45748</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="18"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="18"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="18"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="18"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="18"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="18"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="18"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="56"/>
+      <c r="C49" s="57">
+        <f>SUM(C36:C48)</f>
+        <v>31.5</v>
       </c>
     </row>
   </sheetData>
@@ -2098,6 +2373,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="35" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c91a1a7a62e987314df808fa39da4b34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e3023738844047246cab05fc3830165" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -2551,27 +2835,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
+    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05539879-8A52-4B74-9FF2-F471F780BCE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2589,12 +2879,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/133_GESTPROJ_KAZ_PER.xlsx
+++ b/documentation/133_GESTPROJ_KAZ_PER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28822"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stu.net.fr.ch\perso$\Users\KazanjianA01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/nilo_perlini_studentfr_ch/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFB69888-09B7-4462-9B80-537128C0E483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{69EB11BE-E85B-40C9-B2C7-E92817F4DA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E04C2A4-6C86-4882-8BBC-43410F76C8AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>Planning</t>
   </si>
@@ -126,6 +126,9 @@
     <t>Théorie + TT</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Exercice 1 à 10</t>
   </si>
   <si>
@@ -214,6 +217,15 @@
   </si>
   <si>
     <t>Création du panning /Conception</t>
+  </si>
+  <si>
+    <t>Développement du BackEnd</t>
+  </si>
+  <si>
+    <t>Développement du BackEnd / Développement du FrontEnd</t>
+  </si>
+  <si>
+    <t>Développement du BackEnd / Développement du FrontEnd / Finalisation et présentation du projet avec le prof</t>
   </si>
   <si>
     <t xml:space="preserve">Total </t>
@@ -346,20 +358,17 @@
     <t>Documentation des maquettes et partie analyse dans la documentation / Journal de travail / Documentation de la partie Conception dans la documentation</t>
   </si>
   <si>
-    <t>Développement du BackEnd</t>
-  </si>
-  <si>
-    <t>Développement du BackEnd / Développement du FrontEnd</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>/ Développement du FrontEnd</t>
+  </si>
+  <si>
+    <t>Développement du FrontEnd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,83 +962,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1897156</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>541244</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0EF5CF-0F0D-C2B3-31C1-2B199DD64F3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1897156" y="1343025"/>
-          <a:ext cx="1120588" cy="5419725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:alpha val="51000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-CH" sz="2800"/>
-            <a:t>Temps qui passe..</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1324,18 +1256,19 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="10" width="8" customWidth="1"/>
-    <col min="11" max="16" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="12" max="16" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="31.5">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -1352,8 +1285,8 @@
       <c r="L1" s="63"/>
       <c r="M1" s="63"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:16" ht="21.75" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1376,7 +1309,7 @@
       </c>
       <c r="M3" s="62"/>
     </row>
-    <row r="4" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="21.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1398,9 +1331,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="0.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:16" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="0.75" customHeight="1"/>
+    <row r="6" spans="1:16" ht="0.75" customHeight="1" thickBot="1"/>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="B7" s="58" t="s">
         <v>7</v>
       </c>
@@ -1427,7 +1360,7 @@
       <c r="O7" s="59"/>
       <c r="P7" s="60"/>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
@@ -1477,21 +1410,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="14.45" customHeight="1">
       <c r="A9" s="30" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1505,21 +1438,21 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -1533,9 +1466,9 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="6"/>
@@ -1553,15 +1486,15 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" outlineLevel="1">
       <c r="A12" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="6"/>
       <c r="D12" s="12"/>
       <c r="E12" s="44" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -1575,16 +1508,16 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" outlineLevel="1">
       <c r="A13" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="6"/>
       <c r="D13" s="12"/>
       <c r="E13" s="11"/>
       <c r="F13" s="44" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="11"/>
@@ -1597,19 +1530,19 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" outlineLevel="1">
       <c r="A14" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="6"/>
       <c r="D14" s="12"/>
       <c r="E14" s="11"/>
       <c r="F14" s="44" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -1621,9 +1554,9 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="6"/>
@@ -1641,9 +1574,9 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" outlineLevel="1">
       <c r="A16" s="35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="6"/>
@@ -1651,7 +1584,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="46" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -1663,9 +1596,9 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" outlineLevel="1">
       <c r="A17" s="35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="6"/>
@@ -1673,7 +1606,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="46" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1685,9 +1618,9 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
     </row>
-    <row r="18" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" outlineLevel="1">
       <c r="A18" s="35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="6"/>
@@ -1695,7 +1628,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="46" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -1707,9 +1640,9 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="6"/>
@@ -1717,9 +1650,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="11" t="s">
-        <v>71</v>
-      </c>
+      <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -1729,9 +1660,9 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
     </row>
-    <row r="20" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" outlineLevel="1">
       <c r="A20" s="37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="6"/>
@@ -1740,10 +1671,10 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="50" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -1753,9 +1684,9 @@
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
     </row>
-    <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" outlineLevel="1">
       <c r="A21" s="37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="6"/>
@@ -1765,21 +1696,33 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="50" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" outlineLevel="1">
       <c r="A22" s="37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="6"/>
@@ -1791,15 +1734,25 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L22" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="6"/>
@@ -1817,9 +1770,9 @@
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
     </row>
-    <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" outlineLevel="1">
       <c r="A24" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="6"/>
@@ -1832,14 +1785,18 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="51"/>
+      <c r="M24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="51" t="s">
+        <v>29</v>
+      </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" outlineLevel="1">
       <c r="A25" s="39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="6"/>
@@ -1852,14 +1809,20 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="11"/>
+      <c r="M25" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" outlineLevel="1">
       <c r="A26" s="40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
@@ -1873,13 +1836,19 @@
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-    </row>
-    <row r="27" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" outlineLevel="1">
       <c r="A27" s="41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
@@ -1897,9 +1866,9 @@
       <c r="O27" s="23"/>
       <c r="P27" s="23"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A28" s="42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
@@ -1915,27 +1884,55 @@
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
       <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P28" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" outlineLevel="1" thickBot="1">
       <c r="A29" s="43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="47"/>
       <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
+      <c r="D29" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" s="47" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1950,12 +1947,11 @@
     <mergeCell ref="K7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LModule 133&amp;RPlanning</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1966,11 +1962,11 @@
   </sheetPr>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B36:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="63.85546875" customWidth="1"/>
@@ -1979,24 +1975,24 @@
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="31.5">
       <c r="A1" s="63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:3" ht="21.75" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="21.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2005,174 +2001,198 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5">
       <c r="A8" s="17">
         <v>45733</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="17">
         <v>45734</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="18">
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="42.75">
       <c r="A10" s="17">
         <v>45740</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="17">
         <v>45741</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="18">
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="17">
         <v>45747</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C12" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="17">
         <v>45748</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C13" s="18">
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
+      <c r="A14" s="17">
+        <v>45754</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="17">
+        <v>45755</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="17">
+        <v>45761</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.5">
+      <c r="A17" s="17">
+        <v>45762</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="17"/>
       <c r="B18" s="15"/>
       <c r="C18" s="18"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="17"/>
       <c r="B19" s="15"/>
       <c r="C19" s="18"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="17"/>
       <c r="B20" s="15"/>
       <c r="C20" s="18"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="17"/>
       <c r="B21" s="15"/>
       <c r="C21" s="18"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="55" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B22" s="56"/>
       <c r="C22" s="57">
         <f>SUM(C8:C21)</f>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="B24" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="B25" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="B26" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="B27" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="B28" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="B29" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:3" ht="21.75" thickBot="1">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="21.75" thickBot="1">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -2181,126 +2201,150 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="25.5">
       <c r="A35" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.5">
       <c r="A36" s="17">
         <v>45733</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="17">
         <v>45734</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="18">
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="28.5">
       <c r="A38" s="17">
         <v>45740</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C38" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="42.75">
       <c r="A39" s="17">
         <v>45741</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C39" s="18">
         <v>3.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="17">
         <v>45747</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C40" s="18">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="17">
         <v>45748</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C41" s="18">
         <v>3.5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="18"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="18"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="18"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="18"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
+      <c r="A42" s="17">
+        <v>45754</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="17">
+        <v>45755</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="17">
+        <v>45761</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="28.5">
+      <c r="A45" s="17">
+        <v>45762</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="17"/>
       <c r="B46" s="15"/>
       <c r="C46" s="18"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="17"/>
       <c r="B47" s="15"/>
       <c r="C47" s="18"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="17"/>
       <c r="B48" s="15"/>
       <c r="C48" s="18"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75">
       <c r="A49" s="55" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B49" s="56"/>
       <c r="C49" s="57">
         <f>SUM(C36:C48)</f>
-        <v>31.5</v>
+        <v>52.5</v>
       </c>
     </row>
   </sheetData>
@@ -2317,71 +2361,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
-    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004EEFC8B7315DA4449F69FE97A704FE57" ma:contentTypeVersion="35" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c91a1a7a62e987314df808fa39da4b34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc3645a1-58b5-4da5-acb4-f681c13b5e81" xmlns:ns3="3fb344db-9a83-4925-8457-d4a81a8233b7" xmlns:ns4="52c6fd7a-766c-4f84-9f35-2a37be325271" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e3023738844047246cab05fc3830165" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
@@ -2835,48 +2814,79 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Self_Registration_Enabled xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Student_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <Distribution_Groups xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <AppVersion xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Templates xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <CultureName xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <LMS_Mappings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Invited_Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <FolderType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teachers xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <TeamsChannelId xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Teams_Channel_Section_Location xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Math_Settings xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <Owner xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Students xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3fb344db-9a83-4925-8457-d4a81a8233b7" xsi:nil="true"/>
+    <NotebookType xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="52c6fd7a-766c-4f84-9f35-2a37be325271" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05539879-8A52-4B74-9FF2-F471F780BCE4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE473839-D414-4B78-82BC-08E64CD93726}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05539879-8A52-4B74-9FF2-F471F780BCE4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cc3645a1-58b5-4da5-acb4-f681c13b5e81"/>
-    <ds:schemaRef ds:uri="3fb344db-9a83-4925-8457-d4a81a8233b7"/>
-    <ds:schemaRef ds:uri="52c6fd7a-766c-4f84-9f35-2a37be325271"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE303A41-7D70-49B7-87A8-C6207A042BC3}"/>
 </file>